--- a/遥控V1.1 BOM物料表.xlsx
+++ b/遥控V1.1 BOM物料表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\小项目\Si24r1遥控\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FCE13F-D487-483C-9570-1A7D036F65AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2541CE0-7022-4CF2-A55A-325208E25160}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25230" windowHeight="13155" xr2:uid="{AA9A3F99-D198-403D-BB9D-C21FA1F22593}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>Comment</t>
   </si>
@@ -340,6 +340,34 @@
   </si>
   <si>
     <t>微型USB母座（给电池充电）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40142e8dV6LF4G&amp;id=574454639271&amp;_u=i3pq192hbe14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创不容易买到的器件链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外接电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40142e8dV6LF4G&amp;id=613514592021&amp;_u=i3pq192h6e9a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=539017631913&amp;spm=a1z09.2.0.0.40142e8dV6LF4G&amp;_u=i3pq192h1a35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40142e8dV6LF4G&amp;id=557056221871&amp;_u=i3pq192hf794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40142e8dV6LF4G&amp;id=556956143399&amp;_u=i3pq192h781d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +386,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -378,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -401,13 +438,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,9 +471,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,19 +792,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,8 +823,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -789,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -809,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -829,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -849,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -869,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
@@ -889,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>92</v>
       </c>
@@ -909,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -929,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -949,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -968,8 +1026,11 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -989,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1009,9 +1070,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1022,8 +1085,11 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1043,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
@@ -1061,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1079,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1099,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>60</v>
       </c>
@@ -1116,8 +1182,11 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
@@ -1137,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>68</v>
       </c>
@@ -1156,8 +1225,11 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
@@ -1176,8 +1248,11 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1197,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -1217,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>83</v>
       </c>
@@ -1237,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>86</v>
       </c>
@@ -1259,8 +1334,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G11" r:id="rId1" xr:uid="{7C3DD96E-C49D-493A-BFD6-B433A663F015}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{BACF0509-233D-4AAA-8077-47D5D4E23060}"/>
+    <hyperlink ref="G19" r:id="rId3" xr:uid="{493D89BE-D6B0-4BC6-BEC6-D4F28CA1F3CD}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{E30C1CA4-25F0-4ABF-81B7-5630DF5DB9AA}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{06370E31-02DF-41C1-9F09-05438ACF3252}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" blackAndWhite="1" r:id="rId6"/>
 </worksheet>
 </file>